--- a/workingfolder/python/tables/SENI_Est.xlsx
+++ b/workingfolder/python/tables/SENI_Est.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/ExpProject/workingfolder/python/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60511038-4B3B-4B49-AC49-D96B6ECF2954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>SENI: $\lambda$</t>
   </si>
@@ -36,36 +30,12 @@
   <si>
     <t>SENI: $\sigma_{pr,SCE}$</t>
   </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>FEVar</t>
-  </si>
-  <si>
-    <t>FEATV</t>
-  </si>
-  <si>
-    <t>Disg</t>
-  </si>
-  <si>
-    <t>DisgVar</t>
-  </si>
-  <si>
-    <t>DisgATV</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,14 +98,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -182,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,16 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -507,114 +431,6 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>0.64</v>
-      </c>
-      <c r="I2">
-        <v>0.16</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0.19</v>
-      </c>
-      <c r="L2">
-        <v>0.2</v>
-      </c>
-      <c r="M2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0.62</v>
-      </c>
-      <c r="I3">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="J3">
-        <v>0.17</v>
-      </c>
-      <c r="K3">
-        <v>0.25</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>0.62</v>
-      </c>
-      <c r="I4">
-        <v>13.7</v>
-      </c>
-      <c r="J4">
-        <v>-0.17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
